--- a/Planing/Projekt_Protokoll.xlsx
+++ b/Planing/Projekt_Protokoll.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTL\3BHIF\SYP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakob\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492936BF-6FB8-403D-92F6-C3FA5032E1C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFACBF24-89A8-4D43-ABCD-6AA8CB5F2B1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{0EB1387A-4401-440F-AEDA-2D1E6E2945D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0EB1387A-4401-440F-AEDA-2D1E6E2945D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Projet Overview" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,8 +101,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,8 +129,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -130,20 +150,188 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -515,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C9F817-AD91-40BF-85AF-E2F9C315E132}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,49 +713,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="26"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="26"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="26"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="26"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="26"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="26"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="26"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="26"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="26"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -581,77 +769,84 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CED6F36-1EFC-47E2-8708-28110CD7A459}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
     <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="C4" s="13">
+        <v>44242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="C5" s="13">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D6">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="C6" s="13">
+        <v>44270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D7">
-        <v>22.3</v>
+      <c r="C7" s="15">
+        <v>44277</v>
       </c>
     </row>
   </sheetData>
@@ -663,62 +858,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83CC64B-EC72-4F4D-A208-882C504C2D43}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="162.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Planing/Projekt_Protokoll.xlsx
+++ b/Planing/Projekt_Protokoll.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakob\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTL\3BHIF\SYP\Relaxing\Planing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFACBF24-89A8-4D43-ABCD-6AA8CB5F2B1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068A6DA1-B84F-4CB3-967F-B72BEFDC4B71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0EB1387A-4401-440F-AEDA-2D1E6E2945D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{0EB1387A-4401-440F-AEDA-2D1E6E2945D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Projet Overview" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Projektname: Relaxing App</t>
   </si>
@@ -80,13 +80,52 @@
     <t>Die allgemeinen Funktion sind ziemlich schnell besprochen worden da jeder schon eine grund Idee hatte. Geineigt haben wir uns darauf, dass dem User Uebungen empfohlen werden je nacht seiner jetzigen stimmung. Der User kann auch seine stimmung eingeben da wir zurzeit nicht die noetigen materialien haben diesen zu bestimmen.</t>
   </si>
   <si>
-    <t>Die GUI wurde im allgemeinen besprochen wie sie aussehen soll (noch keine deteils genauen bekannt).</t>
-  </si>
-  <si>
     <t>1 Prototyp</t>
   </si>
   <si>
-    <t>Dem Protoypen fehlen noch ein paar keine Funktionen wie der eingabe und die daten zu Speichern</t>
+    <t>Die GUI wurde im allgemeinen besprochen wie sie aussehen soll (noch keine details genauen bekannt).</t>
+  </si>
+  <si>
+    <t>Dem Protoypen fehlen noch ein paar kleine Funktionen wie der Eingabe und die Daten zu speichern</t>
+  </si>
+  <si>
+    <t>Erledigt am</t>
+  </si>
+  <si>
+    <t>Erledigt von</t>
+  </si>
+  <si>
+    <t>Legende:</t>
+  </si>
+  <si>
+    <t>Abgeschlossen</t>
+  </si>
+  <si>
+    <t>In Arbeit</t>
+  </si>
+  <si>
+    <t>Ueberfaellig</t>
+  </si>
+  <si>
+    <t>GRP= Vujanovic Davor, Neumueller Jakob, Seifert Moritz</t>
+  </si>
+  <si>
+    <t>GRP</t>
+  </si>
+  <si>
+    <t>Vujanovic Davor, Seifert Moritz</t>
+  </si>
+  <si>
+    <t>Anwesende Teilnehmer</t>
+  </si>
+  <si>
+    <t>Jeder</t>
+  </si>
+  <si>
+    <t>Technologie fixiert</t>
+  </si>
+  <si>
+    <t>Meilensteine erledigt</t>
   </si>
 </sst>
 </file>
@@ -110,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +180,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -286,20 +337,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -307,31 +372,32 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -703,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C9F817-AD91-40BF-85AF-E2F9C315E132}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,49 +779,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
+      <c r="A4" s="17"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
+      <c r="A5" s="17"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+      <c r="A6" s="17"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="17"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
+      <c r="A8" s="17"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
+      <c r="A9" s="17"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
+      <c r="A10" s="17"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
+      <c r="A11" s="17"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
+      <c r="A12" s="17"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -769,84 +835,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CED6F36-1EFC-47E2-8708-28110CD7A459}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="39.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="34"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="E3" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="31">
         <v>44242</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="E4" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="30"/>
+      <c r="D5" s="31">
         <v>44256</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="E5" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>3</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="30"/>
+      <c r="D6" s="31">
         <v>44270</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="E6" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="B7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="32">
         <v>44277</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -856,66 +951,118 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83CC64B-EC72-4F4D-A208-882C504C2D43}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="162.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="C2" s="25">
+        <v>44242</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="C3" s="27">
+        <v>44256</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="26"/>
+      <c r="F4" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+        <v>15</v>
+      </c>
+      <c r="C5" s="25">
+        <v>44270</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C6" s="25">
+        <v>44277</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
